--- a/EvidencijaKvarova/EvidencijaKvarova/bin/Debug/faultsExcel.xlsx
+++ b/EvidencijaKvarova/EvidencijaKvarova/bin/Debug/faultsExcel.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ID kvara</t>
   </si>
@@ -26,49 +26,16 @@
     <t>Spisak izvršenih akcija</t>
   </si>
   <si>
-    <t>20240515202825_28e4a94c-f0f8-4132-8d9b-d2d2204bd640</t>
+    <t>20240521220603_1</t>
   </si>
   <si>
-    <t>Transistor</t>
+    <t>Resistor</t>
   </si>
   <si>
     <t>srednji napon</t>
   </si>
   <si>
-    <t>5/15/2024 8:28:25 PM: Initial inspection</t>
-  </si>
-  <si>
-    <t>20240515204539_2</t>
-  </si>
-  <si>
-    <t>5/15/2024 8:45:39 PM: Initial inspection</t>
-  </si>
-  <si>
-    <t>20240516210417_1</t>
-  </si>
-  <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>5/16/2024 9:04:17 PM: Initial inspection</t>
-  </si>
-  <si>
-    <t>20240516210427_2</t>
-  </si>
-  <si>
-    <t>Batteries</t>
-  </si>
-  <si>
-    <t>5/16/2024 9:04:27 PM: Initial inspection</t>
-  </si>
-  <si>
-    <t>20240517135228_1</t>
-  </si>
-  <si>
-    <t>Capacitor</t>
-  </si>
-  <si>
-    <t>5/17/2024 1:52:28 PM: Initial inspection, 5/17/2024 1:53:06 PM: idk2</t>
+    <t>5/21/2024 10:06:03 PM: Initial inspection, 5/21/2024 10:10:56 PM: neki opis</t>
   </si>
 </sst>
 </file>
@@ -115,7 +82,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -149,62 +116,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>
